--- a/excel/exchange.xlsx
+++ b/excel/exchange.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>CfgId</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Rewards</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>#Comment</t>
   </si>
   <si>
     <t>cs</t>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1260,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1274,9 +1274,6 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/excel/exchange.xlsx
+++ b/excel/exchange.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>CfgId</t>
   </si>
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t>cs</t>
+  </si>
+  <si>
+    <t>#注释行</t>
+  </si>
+  <si>
+    <t>兑换次数限制</t>
+  </si>
+  <si>
+    <t>兑换条件</t>
+  </si>
+  <si>
+    <t>兑换价格</t>
+  </si>
+  <si>
+    <t>兑换获得物品</t>
+  </si>
+  <si>
+    <t>注释</t>
   </si>
   <si>
     <t>CfgId_1#Num_2</t>
@@ -687,12 +705,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1227,16 +1248,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="30.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1277,52 +1301,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>10001</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+    <row r="3" ht="42" customHeight="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>50001</v>
+        <v>10001</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
+        <v>50001</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
         <v>50002</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/excel/exchange.xlsx
+++ b/excel/exchange.xlsx
@@ -38,10 +38,12 @@
     <t>ConditionTemplates</t>
   </si>
   <si>
-    <t>Consumes</t>
-  </si>
-  <si>
-    <t>Rewards</t>
+    <t>Consumes
+#Field=CfgId_Num</t>
+  </si>
+  <si>
+    <t>Rewards
+#Field=CfgId_Num</t>
   </si>
   <si>
     <t>#Comment</t>
@@ -68,25 +70,25 @@
     <t>注释</t>
   </si>
   <si>
-    <t>CfgId_1#Num_2</t>
+    <t>1_2</t>
   </si>
   <si>
     <t>活动1的兑换配置1</t>
   </si>
   <si>
-    <t>CfgId_1#Num_1;CfgId_2#Num_2</t>
-  </si>
-  <si>
-    <t>CfgId_3#Num_1</t>
+    <t>1_1;2_2</t>
+  </si>
+  <si>
+    <t>3_1</t>
   </si>
   <si>
     <t>活动5的兑换配置1</t>
   </si>
   <si>
-    <t>CfgId_3#Num_1;CfgId_4#Num_2</t>
-  </si>
-  <si>
-    <t>CfgId_1#Num_10</t>
+    <t>3_1;4_2</t>
+  </si>
+  <si>
+    <t>1_10</t>
   </si>
   <si>
     <t>活动5的兑换配置2</t>
@@ -705,12 +707,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1251,7 +1256,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1264,7 +1269,7 @@
     <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="27" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1274,10 +1279,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1305,7 +1310,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">

--- a/excel/exchange.xlsx
+++ b/excel/exchange.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>CfgId</t>
   </si>
@@ -39,14 +39,17 @@
   </si>
   <si>
     <t>Consumes
-#Field=CfgId_Num</t>
+#Field=CfgId_Num#Ref=ItemCfg</t>
   </si>
   <si>
     <t>Rewards
-#Field=CfgId_Num</t>
-  </si>
-  <si>
-    <t>#Comment</t>
+#Field=CfgId_Num#Ref=ItemCfg</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Detail</t>
   </si>
   <si>
     <t>cs</t>
@@ -67,7 +70,12 @@
     <t>兑换获得物品</t>
   </si>
   <si>
-    <t>注释</t>
+    <t>兑换分类
+enum 
+ExchangeCategory</t>
+  </si>
+  <si>
+    <t>描述</t>
   </si>
   <si>
     <t>1_2</t>
@@ -1253,23 +1261,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:6">
+    <row r="1" ht="27" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1285,48 +1294,60 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" ht="42" customHeight="1" spans="1:6">
+    <row r="3" ht="42" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -1334,13 +1355,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>50001</v>
       </c>
@@ -1348,16 +1369,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>50002</v>
       </c>
@@ -1365,13 +1386,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/excel/exchange.xlsx
+++ b/excel/exchange.xlsx
@@ -26,8 +26,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>gy</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">条件模板表: condition_template.xlsx
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>CfgId</t>
   </si>
@@ -61,7 +84,8 @@
     <t>兑换次数限制</t>
   </si>
   <si>
-    <t>兑换条件</t>
+    <t>兑换条件
+格式: 条件id_参数</t>
   </si>
   <si>
     <t>兑换价格</t>
@@ -78,10 +102,13 @@
     <t>描述</t>
   </si>
   <si>
+    <t>1_5</t>
+  </si>
+  <si>
     <t>1_2</t>
   </si>
   <si>
-    <t>活动1的兑换配置1</t>
+    <t>商店1的商品1,5级可买</t>
   </si>
   <si>
     <t>1_1;2_2</t>
@@ -90,7 +117,7 @@
     <t>3_1</t>
   </si>
   <si>
-    <t>活动5的兑换配置1</t>
+    <t>商店1的商品2</t>
   </si>
   <si>
     <t>3_1;4_2</t>
@@ -99,7 +126,16 @@
     <t>1_10</t>
   </si>
   <si>
-    <t>活动5的兑换配置2</t>
+    <t>商店1的商品3</t>
+  </si>
+  <si>
+    <t>活动1的礼包1</t>
+  </si>
+  <si>
+    <t>活动5的礼包1</t>
+  </si>
+  <si>
+    <t>活动5的礼包2</t>
   </si>
 </sst>
 </file>
@@ -112,7 +148,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +299,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -715,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +765,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1261,21 +1305,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:7">
@@ -1331,7 +1375,7 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1349,54 +1393,110 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>10001</v>
+        <v>1001</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>50001</v>
+        <v>1002</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
+      <c r="A7">
+        <v>10001</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8">
+        <v>50001</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9">
         <v>50002</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E9" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/exchange.xlsx
+++ b/excel/exchange.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>CfgId</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>活动1的礼包1</t>
+  </si>
+  <si>
+    <t>活动3的礼包</t>
   </si>
   <si>
     <t>活动5的礼包1</t>
@@ -756,7 +759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,9 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1305,10 +1305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1375,7 +1375,7 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1460,16 +1460,14 @@
     </row>
     <row r="8" customFormat="1" spans="1:7">
       <c r="A8">
-        <v>50001</v>
+        <v>30001</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" t="s">
@@ -1478,20 +1476,38 @@
     </row>
     <row r="9" customFormat="1" spans="1:7">
       <c r="A9">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:7">
+      <c r="A10">
+        <v>50002</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/excel/exchange.xlsx
+++ b/excel/exchange.xlsx
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
